--- a/contents/tables/table6_reproduced.xlsx
+++ b/contents/tables/table6_reproduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dalu-my.sharepoint.com/personal/ku753523_dal_ca/Documents/COURSES/CSCI 6055 - Research Methods &amp; Statistics/Research-Methodology-and-Stats/contents/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{125FD482-EC15-4EE4-A206-C67CD9ECCA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{934C0DE1-4875-45B6-A001-DEF29A33BCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{D247751A-707E-4912-9E2D-41F44DDE6117}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{176A26E3-22A4-42D7-BEEA-491AE5A97E05}"/>
   </bookViews>
   <sheets>
     <sheet name="table6_reproduced" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
     <t>thal</t>
   </si>
   <si>
+    <t>oldpeak</t>
+  </si>
+  <si>
     <t>age</t>
-  </si>
-  <si>
-    <t>oldpeak</t>
   </si>
   <si>
     <t>thalach</t>
@@ -943,11 +943,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49133ECF-0706-4ADE-918F-35CC3ECBBF29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC20E24-27B3-403D-B080-7C17EE31F0EF}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1028,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1039,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1083,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1094,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
